--- a/docs/parameters.xlsx
+++ b/docs/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GaussianPlume\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E1E4E-D372-4B23-A348-92B2CA276606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230E3C6-124B-41E0-A4C2-819C5B9347DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{24D75FE4-46AC-4727-8C69-3C0C0F4AC705}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Source</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>hm</t>
+  </si>
+  <si>
+    <t>sigma_y</t>
+  </si>
+  <si>
+    <t>sigma_z</t>
+  </si>
+  <si>
+    <t>calculated, recalculated if sigma_z is not set as well</t>
+  </si>
+  <si>
+    <t>calculated, recalculated if sigma_y is not set as well</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>calculated during parse_data</t>
   </si>
 </sst>
 </file>
@@ -554,10 +572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E7B790-6433-40FA-B5FC-48D06C694AAD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,35 +855,29 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
+      <c r="F20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -874,15 +886,12 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -896,7 +905,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -913,7 +922,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -922,160 +931,202 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
-        <v>50</v>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
+      <c r="A33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/parameters.xlsx
+++ b/docs/parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GaussianPlume\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230E3C6-124B-41E0-A4C2-819C5B9347DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF260ABC-21BC-46BF-85DA-D9159AE31B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{24D75FE4-46AC-4727-8C69-3C0C0F4AC705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{24D75FE4-46AC-4727-8C69-3C0C0F4AC705}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="plume tweaks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>Source</t>
   </si>
@@ -159,15 +160,6 @@
     <t>not required if dx and dy are used</t>
   </si>
   <si>
-    <t>not required if dlatS and dlonS are used</t>
-  </si>
-  <si>
-    <t>not required if dlatM and dlonM are used</t>
-  </si>
-  <si>
-    <t>not required if dlatM and dlonM and dlatS and dlonS are used</t>
-  </si>
-  <si>
     <t xml:space="preserve">use either stability_index of stability_class. Last one set is used. </t>
   </si>
   <si>
@@ -211,6 +203,75 @@
   </si>
   <si>
     <t>calculated during parse_data</t>
+  </si>
+  <si>
+    <t>ignored if dx and dy are set</t>
+  </si>
+  <si>
+    <t>ignored if dlatS and dlonS are set</t>
+  </si>
+  <si>
+    <t>ignored if dlatM and dlonM are set</t>
+  </si>
+  <si>
+    <t>ignored if dlatM and dlonM and dlatS and dlonS are set</t>
+  </si>
+  <si>
+    <t>Error?</t>
+  </si>
+  <si>
+    <t>wind_direction_plus</t>
+  </si>
+  <si>
+    <t>wind_speed_plus</t>
+  </si>
+  <si>
+    <t>wind_speed_times</t>
+  </si>
+  <si>
+    <t>set wind_direction to this value (number or array)</t>
+  </si>
+  <si>
+    <t>set wind_speed to this value (number or array)</t>
+  </si>
+  <si>
+    <t>add this number to the wind_direction</t>
+  </si>
+  <si>
+    <t>add this number to the wind_speed</t>
+  </si>
+  <si>
+    <t>multiply wind_speed with this number, done before wind_speed_plus</t>
+  </si>
+  <si>
+    <t>background_length_before_plume</t>
+  </si>
+  <si>
+    <t>length of background before the plume, in seconds</t>
+  </si>
+  <si>
+    <t>background_length_after_plume</t>
+  </si>
+  <si>
+    <t>length of background after the plume, in seconds</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Use background length plume length times this number</t>
+  </si>
+  <si>
+    <t>background_length_times</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -572,29 +633,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E7B790-6433-40FA-B5FC-48D06C694AAD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -610,15 +677,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -626,13 +696,16 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -640,13 +713,16 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -654,19 +730,22 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -674,19 +753,22 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -697,13 +779,16 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -714,13 +799,16 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -728,19 +816,19 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -748,19 +836,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -771,13 +859,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -788,13 +876,13 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -802,13 +890,13 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -816,13 +904,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -833,13 +921,13 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -850,32 +938,38 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -886,10 +980,10 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -900,12 +994,18 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -917,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -931,12 +1031,12 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -948,10 +1048,10 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -962,10 +1062,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -973,24 +1073,27 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1001,13 +1104,13 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1018,21 +1121,24 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" t="s">
-        <v>58</v>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,9 +1218,6 @@
       </c>
       <c r="C40" t="s">
         <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,4 +1237,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAC2412-6999-41B6-8A23-7EF51C5D3409}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>